--- a/public/Plantilla_Correspondencia/Plantilla_Cargue_Correspondecias.xlsx
+++ b/public/Plantilla_Correspondencia/Plantilla_Cargue_Correspondecias.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$T$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,28 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Id_correspondencia</t>
-  </si>
-  <si>
-    <t>Id_comunicado</t>
-  </si>
-  <si>
-    <t>Id_asignacion</t>
-  </si>
-  <si>
-    <t>N_radicado</t>
-  </si>
-  <si>
-    <t>Nombre_documento</t>
-  </si>
-  <si>
-    <t>Carpeta_impresion</t>
-  </si>
-  <si>
-    <t>Destinatario</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Tipo_destinatario</t>
   </si>
@@ -65,28 +44,7 @@
     <t>F_notificacion</t>
   </si>
   <si>
-    <t>Estado_correspondencia</t>
-  </si>
-  <si>
-    <t>JRCI</t>
-  </si>
-  <si>
-    <t>Id_proceso</t>
-  </si>
-  <si>
-    <t>Id_servicio</t>
-  </si>
-  <si>
-    <t>Id_evento</t>
-  </si>
-  <si>
-    <t>N_orden</t>
-  </si>
-  <si>
-    <t>Destinario_copias_subrayar</t>
-  </si>
-  <si>
-    <t>Correspondencia_negrilla</t>
+    <t>Id_destinatario</t>
   </si>
 </sst>
 </file>
@@ -419,89 +377,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.7109375" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="37" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.42578125" customWidth="1"/>
-    <col min="20" max="20" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
